--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -387,7 +387,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,23 +395,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -419,10 +420,10 @@
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1928,273 +1929,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF6E26CD-7701-49F1-991A-5B4F43315106}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FA823F9-B06B-4798-82AC-963927B93BA5}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA600F28-1B56-46C0-8D2F-17CDCBCED337}"/>
 </file>
--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="108">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,54 +38,51 @@
     <t>121-quinquies</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formazione atto</t>
+  </si>
+  <si>
+    <t>Numero comunale</t>
+  </si>
+  <si>
+    <t>evento</t>
+  </si>
+  <si>
+    <t>numeroatto</t>
+  </si>
+  <si>
+    <t>Data formazione</t>
+  </si>
+  <si>
+    <t>dataformazione</t>
+  </si>
+  <si>
+    <t>Ora formazione</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>Minuti formazione</t>
+  </si>
+  <si>
+    <t>minuto</t>
+  </si>
+  <si>
+    <t>Marito</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>121-sexies</t>
-  </si>
-  <si>
-    <t>Formazione atto</t>
-  </si>
-  <si>
-    <t>Numero comunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>evento</t>
-  </si>
-  <si>
-    <t>numeroatto</t>
-  </si>
-  <si>
-    <t>Data formazione</t>
-  </si>
-  <si>
-    <t>dataformazione</t>
-  </si>
-  <si>
-    <t>Ora formazione</t>
-  </si>
-  <si>
-    <t>ora</t>
-  </si>
-  <si>
-    <t>Minuti formazione</t>
-  </si>
-  <si>
-    <t>minuto</t>
-  </si>
-  <si>
-    <t>Marito</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>121-quinquies,121-sexies</t>
-  </si>
-  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -330,18 +324,6 @@
   </si>
   <si>
     <t>tipoAccordo</t>
-  </si>
-  <si>
-    <t>Presenza Marito</t>
-  </si>
-  <si>
-    <t>presenzaConiuge1</t>
-  </si>
-  <si>
-    <t>Presenza Moglie</t>
-  </si>
-  <si>
-    <t>presenzaConiuge2</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -412,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -467,57 +449,57 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -528,16 +510,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -548,16 +530,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
@@ -568,19 +550,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
@@ -588,39 +570,39 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
@@ -628,19 +610,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -648,19 +630,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -668,19 +650,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -688,19 +670,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -708,19 +690,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -728,39 +710,39 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -768,39 +750,39 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -808,19 +790,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -828,19 +810,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -848,19 +830,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
@@ -868,19 +850,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -888,39 +870,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
@@ -928,59 +910,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -988,19 +970,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
@@ -1008,19 +990,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1028,39 +1010,39 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
@@ -1068,19 +1050,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1088,19 +1070,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1108,19 +1090,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1128,19 +1110,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -1148,19 +1130,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -1168,39 +1150,39 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -1208,39 +1190,39 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -1248,19 +1230,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
@@ -1268,19 +1250,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -1288,19 +1270,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -1308,19 +1290,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -1328,39 +1310,39 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -1368,59 +1350,59 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -1428,19 +1410,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -1448,139 +1430,139 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -1588,16 +1570,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>82</v>
@@ -1608,16 +1590,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>84</v>
@@ -1628,16 +1610,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>86</v>
@@ -1648,16 +1630,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>88</v>
@@ -1668,16 +1650,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>90</v>
@@ -1688,19 +1670,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -1708,19 +1690,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -1728,19 +1710,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -1748,19 +1730,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -1768,76 +1750,76 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>105</v>
@@ -1848,81 +1830,21 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -227,6 +233,9 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -394,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -406,6 +418,7 @@
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -427,25 +440,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -467,1385 +486,1595 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-quinquies</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-quinquies</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -487,1594 +490,1594 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -236,7 +236,7 @@
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -254,7 +254,7 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.separazione.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -421,7 +421,7 @@
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="51.6640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -233,31 +233,31 @@
     <t>Avvocato Marito</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>evento.separazione</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>evento.separazione</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
     <t>Avvocato Moglie</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.separazione.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>Accordo Separazione</t>
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1602,22 +1602,22 @@
         <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -1625,22 +1625,22 @@
         <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -1648,435 +1648,1447 @@
         <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -152,6 +152,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -314,22 +320,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -409,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -823,7 +829,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>26</v>
@@ -915,7 +921,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
@@ -1030,7 +1036,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>26</v>
@@ -1093,19 +1099,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1116,19 +1122,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1139,19 +1145,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1162,19 +1168,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1185,19 +1191,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1208,19 +1214,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1231,19 +1237,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1254,19 +1260,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1277,19 +1283,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1300,19 +1306,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1323,19 +1329,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1346,19 +1352,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1369,19 +1375,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1392,19 +1398,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1415,19 +1421,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1438,19 +1444,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1467,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1513,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1602,22 +1608,22 @@
         <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1625,579 +1631,579 @@
         <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
@@ -2206,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>27</v>
@@ -2215,12 +2221,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>28</v>
@@ -2229,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>29</v>
@@ -2238,622 +2244,622 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2933,19 +2939,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -2956,19 +2962,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -2979,22 +2985,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>16</v>
@@ -3002,22 +3008,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>16</v>
@@ -3025,19 +3031,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3048,22 +3054,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>16</v>
@@ -3071,24 +3077,116 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Moglie</t>
@@ -415,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1122,19 +1146,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1145,19 +1169,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1168,19 +1192,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1191,19 +1215,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1214,19 +1238,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1237,19 +1261,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1260,19 +1284,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1283,19 +1307,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1330,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,19 +1353,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1352,19 +1376,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1399,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1422,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1445,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1468,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1467,19 +1491,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1490,19 +1514,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1537,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1560,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1583,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1606,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1629,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1652,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1651,1399 +1675,1399 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3054,22 +3078,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>16</v>
@@ -3077,22 +3101,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>16</v>
@@ -3100,19 +3124,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3147,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3170,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3169,24 +3193,208 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="F124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,15 +83,90 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Atto di Matrimonio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.separazione.attoMatrimonio</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
     <t>Marito</t>
   </si>
   <si>
     <t>Cognome</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
@@ -290,76 +365,10 @@
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>Accordo Separazione</t>
-  </si>
-  <si>
-    <t>Id atto</t>
+    <t>Accordo Separazione / Divorzio</t>
   </si>
   <si>
     <t>evento.separazione.accordoSeparazione</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -439,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
@@ -635,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -643,22 +652,22 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -666,22 +675,22 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -689,22 +698,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -712,22 +721,22 @@
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -735,22 +744,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -758,7 +767,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -767,13 +776,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -796,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +822,13 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -827,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
@@ -836,13 +845,13 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -850,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -859,13 +868,13 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -873,39 +882,39 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -916,19 +925,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -939,19 +948,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -962,19 +971,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -985,19 +994,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1008,19 +1017,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1031,19 +1040,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1054,19 +1063,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1077,19 +1086,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1100,19 +1109,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1123,19 +1132,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1146,19 +1155,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1169,19 +1178,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1192,19 +1201,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1215,19 +1224,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1238,19 +1247,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1261,19 +1270,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1284,19 +1293,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1307,19 +1316,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1330,19 +1339,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1353,19 +1362,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1385,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1537,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1845,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,1491 +1868,1491 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3354,19 +3363,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3377,24 +3386,300 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -233,13 +239,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -954,7 +960,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>51</v>
@@ -1046,7 +1052,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -1161,7 +1167,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>51</v>
@@ -1253,7 +1259,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>51</v>
@@ -1368,7 +1374,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>51</v>
@@ -1437,7 +1443,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>51</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C47" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,22 +2153,22 @@
         <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -2170,602 +2176,602 @@
         <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>50</v>
@@ -2774,7 +2780,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>52</v>
@@ -2783,12 +2789,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>53</v>
@@ -2797,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>54</v>
@@ -2806,567 +2812,567 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3375,76 +3381,76 @@
         <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3478,19 +3484,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3501,19 +3507,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3524,19 +3530,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3547,22 +3553,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>16</v>
@@ -3570,22 +3576,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>16</v>
@@ -3593,19 +3599,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3619,16 +3625,16 @@
         <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3642,19 +3648,19 @@
         <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>16</v>
@@ -3665,21 +3671,113 @@
         <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2225,7 +2225,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>114</v>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>113</v>
@@ -2248,7 +2248,7 @@
         <v>53</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>114</v>
@@ -2257,7 +2257,7 @@
         <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>113</v>
@@ -2771,48 +2771,48 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
@@ -2820,19 +2820,19 @@
         <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>117</v>
@@ -2843,16 +2843,16 @@
         <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2866,16 +2866,16 @@
         <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
@@ -2898,7 +2898,7 @@
         <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2912,7 +2912,7 @@
         <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
@@ -2921,7 +2921,7 @@
         <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2935,7 +2935,7 @@
         <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
@@ -2944,7 +2944,7 @@
         <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2958,7 +2958,7 @@
         <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
@@ -2967,7 +2967,7 @@
         <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -2981,7 +2981,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
@@ -2990,7 +2990,7 @@
         <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3004,7 +3004,7 @@
         <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
@@ -3013,7 +3013,7 @@
         <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3027,7 +3027,7 @@
         <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
@@ -3036,7 +3036,7 @@
         <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3050,7 +3050,7 @@
         <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
@@ -3059,7 +3059,7 @@
         <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3073,7 +3073,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
@@ -3082,7 +3082,7 @@
         <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3096,7 +3096,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
@@ -3105,7 +3105,7 @@
         <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3119,7 +3119,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
@@ -3128,7 +3128,7 @@
         <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3142,7 +3142,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
@@ -3151,7 +3151,7 @@
         <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3165,7 +3165,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
@@ -3174,7 +3174,7 @@
         <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3188,7 +3188,7 @@
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
@@ -3197,7 +3197,7 @@
         <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3211,7 +3211,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
@@ -3220,7 +3220,7 @@
         <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3234,7 +3234,7 @@
         <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
@@ -3243,7 +3243,7 @@
         <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3257,7 +3257,7 @@
         <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
@@ -3266,7 +3266,7 @@
         <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3280,16 +3280,16 @@
         <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3303,16 +3303,16 @@
         <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3326,7 +3326,7 @@
         <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3335,7 +3335,7 @@
         <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3346,94 +3346,94 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
@@ -3441,16 +3441,16 @@
         <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3464,7 +3464,7 @@
         <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3473,7 +3473,7 @@
         <v>120</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3487,7 +3487,7 @@
         <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3496,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3510,7 +3510,7 @@
         <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3519,7 +3519,7 @@
         <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3533,7 +3533,7 @@
         <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3542,7 +3542,7 @@
         <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3556,19 +3556,19 @@
         <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>16</v>
@@ -3579,19 +3579,19 @@
         <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>16</v>
@@ -3602,7 +3602,7 @@
         <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3611,7 +3611,7 @@
         <v>120</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3622,19 +3622,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3645,22 +3645,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>16</v>
@@ -3668,116 +3668,24 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1236,7 +1242,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>51</v>
@@ -1259,7 +1265,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>51</v>
@@ -1397,7 +1403,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>51</v>
@@ -1466,7 +1472,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>51</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,22 +2205,22 @@
         <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -2222,1134 +2228,1134 @@
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
@@ -3358,21 +3364,21 @@
         <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3381,21 +3387,21 @@
         <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3404,21 +3410,21 @@
         <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3427,30 +3433,30 @@
         <v>120</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3467,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3490,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3536,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3553,22 +3559,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>16</v>
@@ -3576,22 +3582,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>16</v>
@@ -3599,19 +3605,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3625,16 +3631,16 @@
         <v>121</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3648,19 +3654,19 @@
         <v>121</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>16</v>
@@ -3671,21 +3677,113 @@
         <v>121</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1426,7 +1432,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>51</v>
@@ -1495,7 +1501,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>51</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2024,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,22 +2257,22 @@
         <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -2274,1180 +2280,1180 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
@@ -3456,21 +3462,21 @@
         <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3479,21 +3485,21 @@
         <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
@@ -3502,21 +3508,21 @@
         <v>122</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
@@ -3525,30 +3531,30 @@
         <v>122</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3559,19 +3565,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3582,19 +3588,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3605,19 +3611,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3628,19 +3634,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3651,22 +3657,22 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>16</v>
@@ -3674,22 +3680,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>16</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3723,16 +3729,16 @@
         <v>123</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3746,19 +3752,19 @@
         <v>123</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>16</v>
@@ -3769,21 +3775,113 @@
         <v>123</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -920,39 +926,39 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>54</v>
@@ -966,16 +972,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>56</v>
@@ -989,16 +995,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>58</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>59</v>
@@ -1021,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>60</v>
@@ -1035,7 +1041,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
@@ -1044,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>62</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>63</v>
@@ -1067,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -1081,16 +1087,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>66</v>
@@ -1104,7 +1110,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>67</v>
@@ -1113,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>68</v>
@@ -1127,7 +1133,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -1136,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>70</v>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>71</v>
@@ -1159,7 +1165,7 @@
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>72</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>73</v>
@@ -1182,7 +1188,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>74</v>
@@ -1196,16 +1202,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>76</v>
@@ -1219,7 +1225,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>77</v>
@@ -1228,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
@@ -1242,16 +1248,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>80</v>
@@ -1265,7 +1271,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>81</v>
@@ -1274,7 +1280,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>82</v>
@@ -1288,7 +1294,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>83</v>
@@ -1297,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>84</v>
@@ -1311,7 +1317,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -1320,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>86</v>
@@ -1334,7 +1340,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
@@ -1343,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
@@ -1357,7 +1363,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>89</v>
@@ -1366,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>90</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>91</v>
@@ -1389,7 +1395,7 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>92</v>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>93</v>
@@ -1412,7 +1418,7 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>94</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>95</v>
@@ -1435,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>96</v>
@@ -1449,16 +1455,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>98</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>99</v>
@@ -1481,7 +1487,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>100</v>
@@ -1495,7 +1501,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>101</v>
@@ -1504,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>102</v>
@@ -1518,16 +1524,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>104</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>105</v>
@@ -1550,7 +1556,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>106</v>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>107</v>
@@ -1573,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>108</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>109</v>
@@ -1596,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>110</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,16 +1639,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>54</v>
@@ -1656,16 +1662,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>56</v>
@@ -1679,16 +1685,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>58</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>59</v>
@@ -1711,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>60</v>
@@ -1725,7 +1731,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
@@ -1734,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>62</v>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -1757,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>64</v>
@@ -1771,16 +1777,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>66</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>67</v>
@@ -1803,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>68</v>
@@ -1817,7 +1823,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>69</v>
@@ -1826,7 +1832,7 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>70</v>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -1849,7 +1855,7 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>72</v>
@@ -1863,7 +1869,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>73</v>
@@ -1872,7 +1878,7 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>74</v>
@@ -1886,16 +1892,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>76</v>
@@ -1909,7 +1915,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>77</v>
@@ -1918,7 +1924,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>78</v>
@@ -1932,16 +1938,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>80</v>
@@ -1955,7 +1961,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>81</v>
@@ -1964,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>82</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>83</v>
@@ -1987,7 +1993,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>84</v>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
@@ -2010,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>86</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>87</v>
@@ -2033,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>88</v>
@@ -2047,7 +2053,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>89</v>
@@ -2056,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>90</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>91</v>
@@ -2079,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>92</v>
@@ -2093,7 +2099,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>93</v>
@@ -2102,7 +2108,7 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>94</v>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
@@ -2125,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>96</v>
@@ -2139,16 +2145,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>98</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>99</v>
@@ -2171,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>100</v>
@@ -2185,7 +2191,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>101</v>
@@ -2194,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>102</v>
@@ -2208,16 +2214,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>104</v>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>105</v>
@@ -2240,7 +2246,7 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>106</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>107</v>
@@ -2263,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>108</v>
@@ -2277,7 +2283,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>109</v>
@@ -2286,7 +2292,7 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>110</v>
@@ -2303,59 +2309,59 @@
         <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>54</v>
@@ -2364,12 +2370,12 @@
         <v>8</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>55</v>
@@ -2378,21 +2384,21 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>57</v>
@@ -2401,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>58</v>
@@ -2410,12 +2416,12 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>59</v>
@@ -2424,7 +2430,7 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>60</v>
@@ -2433,12 +2439,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>61</v>
@@ -2447,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>62</v>
@@ -2456,12 +2462,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>63</v>
@@ -2470,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>64</v>
@@ -2479,12 +2485,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>65</v>
@@ -2493,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>66</v>
@@ -2502,12 +2508,12 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>67</v>
@@ -2516,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>68</v>
@@ -2525,12 +2531,12 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>69</v>
@@ -2539,7 +2545,7 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>70</v>
@@ -2548,12 +2554,12 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>71</v>
@@ -2562,7 +2568,7 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>72</v>
@@ -2571,12 +2577,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>73</v>
@@ -2585,7 +2591,7 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>74</v>
@@ -2594,12 +2600,12 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>75</v>
@@ -2608,7 +2614,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>76</v>
@@ -2617,12 +2623,12 @@
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>77</v>
@@ -2631,7 +2637,7 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>78</v>
@@ -2640,12 +2646,12 @@
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>79</v>
@@ -2654,7 +2660,7 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>80</v>
@@ -2663,12 +2669,12 @@
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>81</v>
@@ -2677,7 +2683,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>82</v>
@@ -2686,12 +2692,12 @@
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>83</v>
@@ -2700,7 +2706,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>84</v>
@@ -2709,12 +2715,12 @@
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>85</v>
@@ -2723,7 +2729,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>86</v>
@@ -2732,12 +2738,12 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>87</v>
@@ -2746,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>88</v>
@@ -2755,12 +2761,12 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>89</v>
@@ -2769,7 +2775,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>90</v>
@@ -2778,12 +2784,12 @@
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>91</v>
@@ -2792,7 +2798,7 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>92</v>
@@ -2801,12 +2807,12 @@
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>93</v>
@@ -2815,7 +2821,7 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>94</v>
@@ -2824,12 +2830,12 @@
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>95</v>
@@ -2838,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>96</v>
@@ -2847,21 +2853,21 @@
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>98</v>
@@ -2870,12 +2876,12 @@
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>99</v>
@@ -2884,7 +2890,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>100</v>
@@ -2893,12 +2899,12 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -2907,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>102</v>
@@ -2916,67 +2922,67 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>54</v>
@@ -2985,12 +2991,12 @@
         <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>55</v>
@@ -2999,21 +3005,21 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>57</v>
@@ -3022,7 +3028,7 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>58</v>
@@ -3031,12 +3037,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>59</v>
@@ -3045,7 +3051,7 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>60</v>
@@ -3054,12 +3060,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>61</v>
@@ -3068,7 +3074,7 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>62</v>
@@ -3077,12 +3083,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>63</v>
@@ -3091,7 +3097,7 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>64</v>
@@ -3100,12 +3106,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>65</v>
@@ -3114,7 +3120,7 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>66</v>
@@ -3123,12 +3129,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>67</v>
@@ -3137,7 +3143,7 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>68</v>
@@ -3146,12 +3152,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>69</v>
@@ -3160,7 +3166,7 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>70</v>
@@ -3169,12 +3175,12 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>71</v>
@@ -3183,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>72</v>
@@ -3192,12 +3198,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>73</v>
@@ -3206,7 +3212,7 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>74</v>
@@ -3215,12 +3221,12 @@
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>75</v>
@@ -3229,7 +3235,7 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>76</v>
@@ -3238,12 +3244,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>77</v>
@@ -3252,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>78</v>
@@ -3261,12 +3267,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>79</v>
@@ -3275,7 +3281,7 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>80</v>
@@ -3284,12 +3290,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>81</v>
@@ -3298,7 +3304,7 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>82</v>
@@ -3307,12 +3313,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>83</v>
@@ -3321,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>84</v>
@@ -3330,12 +3336,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>85</v>
@@ -3344,7 +3350,7 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>86</v>
@@ -3353,12 +3359,12 @@
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>87</v>
@@ -3367,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>88</v>
@@ -3376,12 +3382,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>89</v>
@@ -3390,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>90</v>
@@ -3399,12 +3405,12 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>91</v>
@@ -3413,7 +3419,7 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>92</v>
@@ -3422,12 +3428,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>93</v>
@@ -3436,7 +3442,7 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>94</v>
@@ -3445,12 +3451,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>95</v>
@@ -3459,7 +3465,7 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>96</v>
@@ -3468,21 +3474,21 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>98</v>
@@ -3491,12 +3497,12 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>99</v>
@@ -3505,7 +3511,7 @@
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>100</v>
@@ -3514,12 +3520,12 @@
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>101</v>
@@ -3528,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>102</v>
@@ -3537,47 +3543,47 @@
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3588,19 +3594,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3611,19 +3617,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3634,19 +3640,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3657,19 +3663,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3680,19 +3686,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3703,19 +3709,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3726,19 +3732,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3749,22 +3755,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>16</v>
@@ -3772,19 +3778,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>8</v>
@@ -3795,22 +3801,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>16</v>
@@ -3821,19 +3827,19 @@
         <v>125</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>16</v>
@@ -3844,16 +3850,16 @@
         <v>125</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3864,24 +3870,70 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -472,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1047,7 +1059,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
@@ -1070,7 +1082,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1116,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>53</v>
@@ -1139,7 +1151,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
@@ -1231,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>53</v>
@@ -1254,7 +1266,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -1277,7 +1289,7 @@
         <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>53</v>
@@ -1300,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>53</v>
@@ -1484,7 +1496,7 @@
         <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>53</v>
@@ -1507,7 +1519,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>53</v>
@@ -1553,7 +1565,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>53</v>
@@ -1576,7 +1588,7 @@
         <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>53</v>
@@ -1639,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1674,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1685,19 +1697,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1708,19 +1720,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1731,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1754,19 +1766,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,19 +1835,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1846,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1892,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1915,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1938,19 +1950,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1961,19 +1973,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1996,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2030,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2065,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2076,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2122,19 +2134,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2157,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2306,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2329,640 +2341,640 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,10 +2985,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
@@ -2985,10 +2997,10 @@
         <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>123</v>
@@ -2996,10 +3008,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
@@ -3008,10 +3020,10 @@
         <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>123</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3042,19 +3054,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3065,19 +3077,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3088,485 +3100,485 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135">
@@ -3574,22 +3586,22 @@
         <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136">
@@ -3597,22 +3609,22 @@
         <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137">
@@ -3620,22 +3632,22 @@
         <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138">
@@ -3643,22 +3655,22 @@
         <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139">
@@ -3666,22 +3678,22 @@
         <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140">
@@ -3689,22 +3701,22 @@
         <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141">
@@ -3712,22 +3724,22 @@
         <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142">
@@ -3735,39 +3747,39 @@
         <v>125</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3778,22 +3790,22 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>16</v>
@@ -3801,22 +3813,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>16</v>
@@ -3824,22 +3836,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>16</v>
@@ -3847,19 +3859,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
@@ -3870,19 +3882,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -3893,19 +3905,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
@@ -3916,24 +3928,208 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -383,7 +383,7 @@
     <t>foroAvvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge1,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge1</t>
@@ -395,18 +395,36 @@
     <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
-    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false</t>
+    <t>evento.separazione.presenzaAvvocatoConiuge2,=,false || evento.separazione.avvocatoUnico,=,true</t>
   </si>
   <si>
     <t>evento.separazione.avvocatoConiuge2</t>
   </si>
   <si>
+    <t>Avvocato</t>
+  </si>
+  <si>
+    <t>evento.separazione.avvocatoUnico,=,false</t>
+  </si>
+  <si>
     <t>Accordo Separazione / Divorzio</t>
   </si>
   <si>
     <t>evento.separazione.accordoSeparazione</t>
   </si>
   <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -414,6 +432,18 @@
   </si>
   <si>
     <t>tipoAccordo</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Avvocato unico per entrambe le parti</t>
+  </si>
+  <si>
+    <t>avvocatoUnico</t>
   </si>
   <si>
     <t>Presenza avvocato Marito</t>
@@ -484,19 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="90.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3770,22 +3800,22 @@
         <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="144">
@@ -3793,22 +3823,22 @@
         <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="145">
@@ -3816,22 +3846,22 @@
         <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="146">
@@ -3839,22 +3869,22 @@
         <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="147">
@@ -3862,22 +3892,22 @@
         <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -3885,22 +3915,22 @@
         <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="149">
@@ -3908,22 +3938,22 @@
         <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="150">
@@ -3931,22 +3961,22 @@
         <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="151">
@@ -3954,22 +3984,22 @@
         <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="152">
@@ -3977,22 +4007,22 @@
         <v>129</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="153">
@@ -4000,22 +4030,22 @@
         <v>129</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -4023,22 +4053,22 @@
         <v>129</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -4046,90 +4076,1447 @@
         <v>129</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="B214" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Sep_Div_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -83,88 +83,100 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Atto nascita Coniuge1</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposo</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto nascita Coniuge2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoNascitaSposa</t>
+  </si>
+  <si>
     <t>Atto di Matrimonio</t>
   </si>
   <si>
     <t>Id atto</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>evento.separazione.attoMatrimonio</t>
   </si>
   <si>
     <t>idAnsc</t>
-  </si>
-  <si>
-    <t>opzionale</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
   </si>
   <si>
     <t>Marito</t>
@@ -514,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -523,7 +535,7 @@
     <col min="1" max="1" width="28.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="37.23046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="44.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.78515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="90.609375" customWidth="true" bestFit="true"/>
@@ -819,7 +831,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -833,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
@@ -842,7 +854,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -865,7 +877,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -879,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
@@ -888,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -968,19 +980,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -991,255 +1003,255 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1247,7 +1259,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>25</v>
@@ -1256,13 +1268,13 @@
         <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -1270,7 +1282,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>25</v>
@@ -1279,13 +1291,13 @@
         <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1293,7 +1305,7 @@
         <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>25</v>
@@ -1302,13 +1314,13 @@
         <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -1316,22 +1328,22 @@
         <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
@@ -1339,22 +1351,22 @@
         <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -1362,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>25</v>
@@ -1371,13 +1383,13 @@
         <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -1385,7 +1397,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>25</v>
@@ -1394,13 +1406,13 @@
         <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
@@ -1408,7 +1420,7 @@
         <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>25</v>
@@ -1417,13 +1429,13 @@
         <v>53</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1443,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>25</v>
@@ -1440,13 +1452,13 @@
         <v>53</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -1454,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>25</v>
@@ -1463,13 +1475,13 @@
         <v>53</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -1477,7 +1489,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>25</v>
@@ -1486,13 +1498,13 @@
         <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -1500,7 +1512,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>25</v>
@@ -1509,13 +1521,13 @@
         <v>53</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -1523,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>25</v>
@@ -1532,30 +1544,30 @@
         <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1854,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1992,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,19 +2015,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,19 +2061,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2153,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2199,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2325,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2348,19 +2360,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2371,19 +2383,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2394,19 +2406,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2429,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2452,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2463,686 +2475,686 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C108" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3153,10 +3165,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>25</v>
@@ -3165,10 +3177,10 @@
         <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>127</v>
@@ -3176,10 +3188,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>25</v>
@@ -3188,10 +3200,10 @@
         <v>128</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>127</v>
@@ -3199,10 +3211,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>25</v>
@@ -3211,7 +3223,7 @@
         <v>128</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,10 +3234,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>25</v>
@@ -3234,7 +3246,7 @@
         <v>128</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,10 +3257,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>25</v>
@@ -3257,7 +3269,7 @@
         <v>128</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,10 +3280,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>25</v>
@@ -3280,7 +3292,7 @@
         <v>128</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,10 +3303,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>25</v>
@@ -3303,7 +3315,7 @@
         <v>128</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,10 +3326,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>25</v>
@@ -3326,7 +3338,7 @@
         <v>128</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3337,10 +3349,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>25</v>
@@ -3349,7 +3361,7 @@
         <v>128</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3360,10 +3372,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>25</v>
@@ -3372,7 +3384,7 @@
         <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3383,10 +3395,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>25</v>
@@ -3395,7 +3407,7 @@
         <v>128</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3406,10 +3418,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>25</v>
@@ -3418,7 +3430,7 @@
         <v>128</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3429,10 +3441,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>25</v>
@@ -3441,7 +3453,7 @@
         <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3452,10 +3464,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>25</v>
@@ -3464,7 +3476,7 @@
         <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3475,10 +3487,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>25</v>
@@ -3487,7 +3499,7 @@
         <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3498,10 +3510,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>25</v>
@@ -3510,7 +3522,7 @@
         <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3521,10 +3533,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>25</v>
@@ -3533,7 +3545,7 @@
         <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3544,10 +3556,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>25</v>
@@ -3556,7 +3568,7 @@
         <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3567,10 +3579,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>25</v>
@@ -3579,7 +3591,7 @@
         <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3590,10 +3602,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>25</v>
@@ -3602,7 +3614,7 @@
         <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3613,19 +3625,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3636,19 +3648,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3659,19 +3671,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3682,117 +3694,117 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
@@ -3800,22 +3812,22 @@
         <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
@@ -3823,22 +3835,22 @@
         <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145">
@@ -3846,22 +3858,22 @@
         <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146">
@@ -3869,22 +3881,22 @@
         <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147">
@@ -3892,22 +3904,22 @@
         <v>129</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="148">
@@ -3915,22 +3927,22 @@
         <v>129</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149">
@@ -3938,22 +3950,22 @@
         <v>129</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150">
@@ -3961,22 +3973,22 @@
         <v>129</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151">
@@ -3984,22 +3996,22 @@
         <v>129</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152">
@@ -4007,22 +4019,22 @@
         <v>129</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153">
@@ -4030,22 +4042,22 @@
         <v>129</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154">
@@ -4053,22 +4065,22 @@
         <v>129</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155">
@@ -4076,22 +4088,22 @@
         <v>129</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156">
@@ -4099,22 +4111,22 @@
         <v>129</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157">
@@ -4122,22 +4134,22 @@
         <v>129</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158">
@@ -4145,22 +4157,22 @@
         <v>129</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159">
@@ -4168,22 +4180,22 @@
         <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160">
@@ -4191,22 +4203,22 @@
         <v>129</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161">
@@ -4214,22 +4226,22 @@
         <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162">
@@ -4237,22 +4249,22 @@
         <v>129</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="163">
@@ -4260,22 +4272,22 @@
         <v>129</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164">
@@ -4283,22 +4295,22 @@
         <v>129</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165">
@@ -4306,22 +4318,22 @@
         <v>129</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166">
@@ -4329,436 +4341,436 @@
         <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185">
@@ -4766,22 +4778,22 @@
         <v>133</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="186">
@@ -4789,22 +4801,22 @@
         <v>133</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="187">
@@ -4812,22 +4824,22 @@
         <v>133</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="188">
@@ -4835,22 +4847,22 @@
         <v>133</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="189">
@@ -4858,22 +4870,22 @@
         <v>133</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="190">
@@ -4881,22 +4893,22 @@
         <v>133</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="191">
@@ -4904,22 +4916,22 @@
         <v>133</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="192">
@@ -4927,22 +4939,22 @@
         <v>133</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="193">
@@ -4950,22 +4962,22 @@
         <v>133</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="194">
@@ -4973,22 +4985,22 @@
         <v>133</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="195">
@@ -4996,413 +5008,413 @@
         <v>133</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213">
@@ -5410,22 +5422,22 @@
         <v>137</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E213" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="214">
@@ -5433,22 +5445,22 @@
         <v>137</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215">
@@ -5456,22 +5468,22 @@
         <v>137</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="216">
@@ -5479,22 +5491,22 @@
         <v>137</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217">
@@ -5502,21 +5514,573 @@
         <v>137</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E217" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F217" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G217" s="2" t="s">
+      <c r="F239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>16</v>
       </c>
     </row>
